--- a/input_data/team_code_orbit_data.xlsx
+++ b/input_data/team_code_orbit_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SyedAtyabHussain\Documents\code_orbit_training\monthly_performance_reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SyedAtyabHussain\Documents\work_area\PerformanceReportGenerator\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00613E35-3A52-4529-BB5A-DAB215A8BA3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC5AF9D-E54F-49EC-931E-2DCA51644A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="3" xr2:uid="{6157CC41-DCF7-4F8D-AFDE-C223C9483824}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{6157CC41-DCF7-4F8D-AFDE-C223C9483824}"/>
   </bookViews>
   <sheets>
     <sheet name="April 2025" sheetId="2" r:id="rId1"/>
@@ -937,9 +937,6 @@
   </si>
   <si>
     <t>Reliably punctual and meets commitments.</t>
-  </si>
-  <si>
-    <t>Srpint No.</t>
   </si>
   <si>
     <t>Sprint URL</t>
@@ -1397,6 +1394,9 @@
   <si>
     <t>https://sharing.clickup.com/90181072525/b/h/2kzkbxmd-538/e21e3d8c6033664</t>
   </si>
+  <si>
+    <t>Sprint No.</t>
+  </si>
 </sst>
 </file>
 
@@ -1406,7 +1406,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2456,33 +2456,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC5D3227-FEC3-4096-A7DD-71679817814C}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O8" sqref="O8"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="75.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="75.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="72" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="76.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="71.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="84.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="77.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="65.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="64.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="76.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="71.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="84.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="77.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="65.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="64.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="72" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="64" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="64.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="48.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="64.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="48.5546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="65" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="41.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="36.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="41.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="36.44140625" style="6" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" ht="18.75">
+    <row r="1" spans="1:17" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2535,7 +2535,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>61.5</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
@@ -2643,7 +2643,7 @@
         <v>69.600000000000009</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="11" customFormat="1">
+    <row r="4" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>43</v>
       </c>
@@ -2697,7 +2697,7 @@
         <v>42.9</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>56</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>67.599999999999994</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>69</v>
       </c>
@@ -2805,7 +2805,7 @@
         <v>62.8</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>82</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>65.2</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>95</v>
       </c>
@@ -2913,7 +2913,7 @@
         <v>67.400000000000006</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15.75" customHeight="1">
+    <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>108</v>
       </c>
@@ -2967,7 +2967,7 @@
         <v>63.8</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>121</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>56.8</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>134</v>
       </c>
@@ -3075,7 +3075,7 @@
         <v>51.7</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>147</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>70.599999999999994</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>160</v>
       </c>
@@ -3183,7 +3183,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>173</v>
       </c>
@@ -3237,7 +3237,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>186</v>
       </c>
@@ -3291,7 +3291,7 @@
         <v>77.099999999999994</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>199</v>
       </c>
@@ -3345,7 +3345,7 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>212</v>
       </c>
@@ -3399,7 +3399,7 @@
         <v>69.899999999999991</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>224</v>
       </c>
@@ -3453,7 +3453,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>236</v>
       </c>
@@ -3507,7 +3507,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>249</v>
       </c>
@@ -3561,7 +3561,7 @@
         <v>62.9</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>262</v>
       </c>
@@ -3615,7 +3615,7 @@
         <v>50.1</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>273</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>63.2</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>285</v>
       </c>
@@ -3723,7 +3723,7 @@
         <v>63.599999999999994</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -3742,7 +3742,7 @@
       <c r="P24" s="8"/>
       <c r="Q24" s="4"/>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -3761,40 +3761,40 @@
       <c r="P25" s="8"/>
       <c r="Q25" s="4"/>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="C26" s="1" t="s">
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="A27" s="1" t="s">
+      <c r="B27" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="C27" t="s">
         <v>302</v>
       </c>
-      <c r="C27" t="s">
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="1" t="s">
+      <c r="B28" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="C28" t="s">
         <v>305</v>
       </c>
-      <c r="C28" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -3813,7 +3813,7 @@
       <c r="P29" s="8"/>
       <c r="Q29" s="4"/>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -3832,28 +3832,28 @@
       <c r="P30" s="8"/>
       <c r="Q30" s="4"/>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="B31" s="5" t="s">
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="33" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="33" t="s">
+      <c r="B32" s="34" t="s">
         <v>309</v>
-      </c>
-      <c r="B32" s="34" t="s">
-        <v>310</v>
       </c>
       <c r="C32" s="34"/>
       <c r="D32" s="34"/>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="33"/>
       <c r="B33" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -3877,30 +3877,30 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O10" sqref="O10"/>
+      <selection pane="topRight" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="72" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="75" customWidth="1"/>
-    <col min="4" max="4" width="76.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="71.28515625" customWidth="1"/>
+    <col min="4" max="4" width="76.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="71.33203125" customWidth="1"/>
     <col min="6" max="6" width="80" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="73.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="61.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="75.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="60.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="61.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="46.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="62.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="39.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="34.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="73.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="61.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="75.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="60.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="61.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="46.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="62.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="39.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="34.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" ht="18">
+    <row r="1" spans="1:17" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3953,7 +3953,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -4007,7 +4007,7 @@
         <v>98.22999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
@@ -4061,7 +4061,7 @@
         <v>96.16</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="12" customHeight="1">
+    <row r="4" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>43</v>
       </c>
@@ -4084,22 +4084,22 @@
         <v>49</v>
       </c>
       <c r="H4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I4" t="s">
         <v>51</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K4" t="s">
         <v>46</v>
       </c>
       <c r="L4" t="s">
+        <v>313</v>
+      </c>
+      <c r="M4" t="s">
         <v>314</v>
-      </c>
-      <c r="M4" t="s">
-        <v>315</v>
       </c>
       <c r="N4">
         <v>30</v>
@@ -4115,7 +4115,7 @@
         <v>56.25</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,7 +4141,7 @@
         <v>63</v>
       </c>
       <c r="I5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J5" t="s">
         <v>65</v>
@@ -4150,10 +4150,10 @@
         <v>46</v>
       </c>
       <c r="L5" t="s">
+        <v>316</v>
+      </c>
+      <c r="M5" t="s">
         <v>317</v>
-      </c>
-      <c r="M5" t="s">
-        <v>318</v>
       </c>
       <c r="N5">
         <v>50</v>
@@ -4169,7 +4169,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>69</v>
       </c>
@@ -4223,7 +4223,7 @@
         <v>83.65</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>82</v>
       </c>
@@ -4277,7 +4277,7 @@
         <v>78.39</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>95</v>
       </c>
@@ -4331,7 +4331,7 @@
         <v>93.1</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>108</v>
       </c>
@@ -4385,7 +4385,7 @@
         <v>91.15</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>121</v>
       </c>
@@ -4439,7 +4439,7 @@
         <v>81.97999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>134</v>
       </c>
@@ -4493,7 +4493,7 @@
         <v>72.02000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="15">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>147</v>
       </c>
@@ -4547,7 +4547,7 @@
         <v>82.44</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>160</v>
       </c>
@@ -4601,7 +4601,7 @@
         <v>98.240000000000009</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>173</v>
       </c>
@@ -4655,7 +4655,7 @@
         <v>81.849999999999994</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>186</v>
       </c>
@@ -4709,7 +4709,7 @@
         <v>84.39</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>199</v>
       </c>
@@ -4763,7 +4763,7 @@
         <v>89.66</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>212</v>
       </c>
@@ -4817,7 +4817,7 @@
         <v>94.02</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>224</v>
       </c>
@@ -4871,7 +4871,7 @@
         <v>77.45</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>236</v>
       </c>
@@ -4925,7 +4925,7 @@
         <v>95.759999999999991</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>249</v>
       </c>
@@ -4979,7 +4979,7 @@
         <v>92.72</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>262</v>
       </c>
@@ -5033,7 +5033,7 @@
         <v>77.14</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>273</v>
       </c>
@@ -5087,7 +5087,7 @@
         <v>92.7</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>285</v>
       </c>
@@ -5141,7 +5141,7 @@
         <v>86.8</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -5160,7 +5160,7 @@
       <c r="P24" s="8"/>
       <c r="Q24" s="4"/>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -5179,40 +5179,40 @@
       <c r="P25" s="8"/>
       <c r="Q25" s="4"/>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="15">
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="C27" t="s">
         <v>320</v>
       </c>
-      <c r="C27" t="s">
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" ht="15">
-      <c r="A28" s="1" t="s">
+      <c r="B28" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="C28" t="s">
         <v>323</v>
       </c>
-      <c r="C28" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -5231,7 +5231,7 @@
       <c r="P29" s="8"/>
       <c r="Q29" s="4"/>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -5250,28 +5250,28 @@
       <c r="P30" s="8"/>
       <c r="Q30" s="4"/>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="B31" s="5" t="s">
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="33" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="33" t="s">
+      <c r="B32" s="34" t="s">
         <v>309</v>
-      </c>
-      <c r="B32" s="34" t="s">
-        <v>310</v>
       </c>
       <c r="C32" s="34"/>
       <c r="D32" s="34"/>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="33"/>
       <c r="B33" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -5294,31 +5294,31 @@
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="O10" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O10" sqref="O10"/>
+      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="75.28515625" customWidth="1"/>
+    <col min="2" max="2" width="75.33203125" customWidth="1"/>
     <col min="3" max="3" width="75" customWidth="1"/>
-    <col min="4" max="4" width="76.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="71.28515625" customWidth="1"/>
+    <col min="4" max="4" width="76.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="71.33203125" customWidth="1"/>
     <col min="6" max="6" width="80" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="73.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="61.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="75.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="60.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="61.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="46.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="62.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="39.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="36.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="73.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="61.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="75.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="60.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="61.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="46.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="62.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="39.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="36.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" ht="36">
+    <row r="1" spans="1:17" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5362,16 +5362,16 @@
         <v>13</v>
       </c>
       <c r="O1" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="P1" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -5421,11 +5421,11 @@
         <v>38.729999999999997</v>
       </c>
       <c r="Q2">
-        <f>SUM(N2,O2,P2)</f>
+        <f t="shared" ref="Q2:Q23" si="0">SUM(N2,O2,P2)</f>
         <v>88.72999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
@@ -5475,11 +5475,11 @@
         <v>36.96</v>
       </c>
       <c r="Q3">
-        <f>SUM(N3,O3,P3)</f>
+        <f t="shared" si="0"/>
         <v>86.960000000000008</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="14.25" customHeight="1">
+    <row r="4" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>43</v>
       </c>
@@ -5502,22 +5502,22 @@
         <v>49</v>
       </c>
       <c r="H4" t="s">
+        <v>311</v>
+      </c>
+      <c r="I4" t="s">
+        <v>326</v>
+      </c>
+      <c r="J4" s="16" t="s">
         <v>312</v>
-      </c>
-      <c r="I4" t="s">
-        <v>327</v>
-      </c>
-      <c r="J4" s="16" t="s">
-        <v>313</v>
       </c>
       <c r="K4" t="s">
         <v>46</v>
       </c>
       <c r="L4" t="s">
+        <v>313</v>
+      </c>
+      <c r="M4" t="s">
         <v>314</v>
-      </c>
-      <c r="M4" t="s">
-        <v>315</v>
       </c>
       <c r="N4">
         <v>20</v>
@@ -5529,11 +5529,11 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <f>SUM(N4,O4,P4)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>56</v>
       </c>
@@ -5559,7 +5559,7 @@
         <v>63</v>
       </c>
       <c r="I5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J5" t="s">
         <v>65</v>
@@ -5568,10 +5568,10 @@
         <v>46</v>
       </c>
       <c r="L5" t="s">
+        <v>316</v>
+      </c>
+      <c r="M5" t="s">
         <v>317</v>
-      </c>
-      <c r="M5" t="s">
-        <v>318</v>
       </c>
       <c r="N5">
         <v>50</v>
@@ -5583,11 +5583,11 @@
         <v>31.9</v>
       </c>
       <c r="Q5">
-        <f>SUM(N5,O5,P5)</f>
+        <f t="shared" si="0"/>
         <v>81.900000000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>69</v>
       </c>
@@ -5637,11 +5637,11 @@
         <v>27.85</v>
       </c>
       <c r="Q6">
-        <f>SUM(N6,O6,P6)</f>
+        <f t="shared" si="0"/>
         <v>77.849999999999994</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>82</v>
       </c>
@@ -5691,11 +5691,11 @@
         <v>30.89</v>
       </c>
       <c r="Q7">
-        <f>SUM(N7,O7,P7)</f>
+        <f t="shared" si="0"/>
         <v>70.89</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>95</v>
       </c>
@@ -5745,11 +5745,11 @@
         <v>36.200000000000003</v>
       </c>
       <c r="Q8">
-        <f>SUM(N8,O8,P8)</f>
+        <f t="shared" si="0"/>
         <v>86.2</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>108</v>
       </c>
@@ -5799,11 +5799,11 @@
         <v>31.65</v>
       </c>
       <c r="Q9">
-        <f>SUM(N9,O9,P9)</f>
+        <f t="shared" si="0"/>
         <v>81.650000000000006</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>121</v>
       </c>
@@ -5853,11 +5853,11 @@
         <v>34.68</v>
       </c>
       <c r="Q10">
-        <f>SUM(N10,O10,P10)</f>
+        <f t="shared" si="0"/>
         <v>74.680000000000007</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>134</v>
       </c>
@@ -5907,11 +5907,11 @@
         <v>25.82</v>
       </c>
       <c r="Q11">
-        <f>SUM(N11,O11,P11)</f>
+        <f t="shared" si="0"/>
         <v>65.819999999999993</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>147</v>
       </c>
@@ -5961,11 +5961,11 @@
         <v>35.44</v>
       </c>
       <c r="Q12">
-        <f>SUM(N12,O12,P12)</f>
+        <f t="shared" si="0"/>
         <v>75.44</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>160</v>
       </c>
@@ -6015,11 +6015,11 @@
         <v>39.24</v>
       </c>
       <c r="Q13">
-        <f>SUM(N13,O13,P13)</f>
+        <f t="shared" si="0"/>
         <v>89.240000000000009</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>173</v>
       </c>
@@ -6069,11 +6069,11 @@
         <v>25.25</v>
       </c>
       <c r="Q14">
-        <f>SUM(N14,O14,P14)</f>
+        <f t="shared" si="0"/>
         <v>75.25</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>186</v>
       </c>
@@ -6123,11 +6123,11 @@
         <v>30.89</v>
       </c>
       <c r="Q15">
-        <f>SUM(N15,O15,P15)</f>
+        <f t="shared" si="0"/>
         <v>75.89</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>199</v>
       </c>
@@ -6177,11 +6177,11 @@
         <v>32.659999999999997</v>
       </c>
       <c r="Q16">
-        <f>SUM(N16,O16,P16)</f>
+        <f t="shared" si="0"/>
         <v>82.66</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>212</v>
       </c>
@@ -6231,11 +6231,11 @@
         <v>37.72</v>
       </c>
       <c r="Q17">
-        <f>SUM(N17,O17,P17)</f>
+        <f t="shared" si="0"/>
         <v>87.72</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>224</v>
       </c>
@@ -6285,11 +6285,11 @@
         <v>20.25</v>
       </c>
       <c r="Q18">
-        <f>SUM(N18,O18,P18)</f>
+        <f t="shared" si="0"/>
         <v>70.25</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>236</v>
       </c>
@@ -6339,11 +6339,11 @@
         <v>36.46</v>
       </c>
       <c r="Q19">
-        <f>SUM(N19,O19,P19)</f>
+        <f t="shared" si="0"/>
         <v>86.460000000000008</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>249</v>
       </c>
@@ -6393,11 +6393,11 @@
         <v>33.92</v>
       </c>
       <c r="Q20">
-        <f>SUM(N20,O20,P20)</f>
+        <f t="shared" si="0"/>
         <v>83.92</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>262</v>
       </c>
@@ -6447,11 +6447,11 @@
         <v>31.14</v>
       </c>
       <c r="Q21">
-        <f>SUM(N21,O21,P21)</f>
+        <f t="shared" si="0"/>
         <v>71.14</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>273</v>
       </c>
@@ -6501,11 +6501,11 @@
         <v>35</v>
       </c>
       <c r="Q22">
-        <f>SUM(N22,O22,P22)</f>
+        <f t="shared" si="0"/>
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>285</v>
       </c>
@@ -6555,11 +6555,11 @@
         <v>30</v>
       </c>
       <c r="Q23">
-        <f>SUM(N23,O23,P23)</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="14.45">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -6578,7 +6578,7 @@
       <c r="P24" s="8"/>
       <c r="Q24" s="4"/>
     </row>
-    <row r="25" spans="1:17" ht="14.45">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -6597,40 +6597,40 @@
       <c r="P25" s="8"/>
       <c r="Q25" s="4"/>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="C27" t="s">
         <v>329</v>
       </c>
-      <c r="C27" t="s">
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="1" t="s">
+      <c r="B28" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="C28" t="s">
         <v>332</v>
       </c>
-      <c r="C28" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="14.45">
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -6649,7 +6649,7 @@
       <c r="P29" s="8"/>
       <c r="Q29" s="4"/>
     </row>
-    <row r="30" spans="1:17" ht="14.45">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -6668,28 +6668,28 @@
       <c r="P30" s="8"/>
       <c r="Q30" s="4"/>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="B31" s="5" t="s">
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="33" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="33" t="s">
+      <c r="B32" s="34" t="s">
         <v>309</v>
-      </c>
-      <c r="B32" s="34" t="s">
-        <v>310</v>
       </c>
       <c r="C32" s="34"/>
       <c r="D32" s="34"/>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="33"/>
       <c r="B33" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -6711,32 +6711,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D44542E2-8924-4D23-A697-464E9EA37102}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P13" sqref="P13"/>
+      <selection pane="topRight" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="72" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="75" customWidth="1"/>
-    <col min="4" max="4" width="76.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="71.28515625" customWidth="1"/>
+    <col min="4" max="4" width="76.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="71.33203125" customWidth="1"/>
     <col min="6" max="6" width="80" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="73.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="61.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="75.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="60.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="61.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="46.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="62.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="39.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="34.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="73.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="61.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="75.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="60.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="61.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="46.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="62.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="39.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="34.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" ht="18.75">
+    <row r="1" spans="1:17" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6789,7 +6789,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -6839,11 +6839,11 @@
         <v>33.39</v>
       </c>
       <c r="Q2">
-        <f>SUM(N2,O2,P2)</f>
+        <f t="shared" ref="Q2:Q23" si="0">SUM(N2,O2,P2)</f>
         <v>92.89</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
@@ -6893,11 +6893,11 @@
         <v>25.74</v>
       </c>
       <c r="Q3">
-        <f>SUM(N3,O3,P3)</f>
+        <f t="shared" si="0"/>
         <v>84.94</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="12" customHeight="1">
+    <row r="4" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>43</v>
       </c>
@@ -6920,22 +6920,22 @@
         <v>49</v>
       </c>
       <c r="H4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I4" t="s">
         <v>51</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K4" t="s">
         <v>46</v>
       </c>
       <c r="L4" t="s">
+        <v>313</v>
+      </c>
+      <c r="M4" t="s">
         <v>314</v>
-      </c>
-      <c r="M4" t="s">
-        <v>315</v>
       </c>
       <c r="N4" s="31">
         <v>33.33</v>
@@ -6947,11 +6947,11 @@
         <v>25.39</v>
       </c>
       <c r="Q4">
-        <f>SUM(N4,O4,P4)</f>
+        <f t="shared" si="0"/>
         <v>58.72</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>56</v>
       </c>
@@ -6977,7 +6977,7 @@
         <v>63</v>
       </c>
       <c r="I5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J5" t="s">
         <v>65</v>
@@ -6986,10 +6986,10 @@
         <v>46</v>
       </c>
       <c r="L5" t="s">
+        <v>316</v>
+      </c>
+      <c r="M5" t="s">
         <v>317</v>
-      </c>
-      <c r="M5" t="s">
-        <v>318</v>
       </c>
       <c r="N5" s="31">
         <v>50</v>
@@ -7001,11 +7001,11 @@
         <v>16.7</v>
       </c>
       <c r="Q5">
-        <f>SUM(N5,O5,P5)</f>
+        <f t="shared" si="0"/>
         <v>73.8</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>69</v>
       </c>
@@ -7055,11 +7055,11 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <f>SUM(N6,O6,P6)</f>
+        <f t="shared" si="0"/>
         <v>55.8</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>82</v>
       </c>
@@ -7109,11 +7109,11 @@
         <v>21.91</v>
       </c>
       <c r="Q7">
-        <f>SUM(N7,O7,P7)</f>
+        <f t="shared" si="0"/>
         <v>69.41</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>95</v>
       </c>
@@ -7163,11 +7163,11 @@
         <v>25.04</v>
       </c>
       <c r="Q8">
-        <f>SUM(N8,O8,P8)</f>
+        <f t="shared" si="0"/>
         <v>81.94</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>108</v>
       </c>
@@ -7217,11 +7217,11 @@
         <v>25.39</v>
       </c>
       <c r="Q9">
-        <f>SUM(N9,O9,P9)</f>
+        <f t="shared" si="0"/>
         <v>84.89</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>121</v>
       </c>
@@ -7271,11 +7271,11 @@
         <v>24.35</v>
       </c>
       <c r="Q10">
-        <f>SUM(N10,O10,P10)</f>
+        <f t="shared" si="0"/>
         <v>71.650000000000006</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>134</v>
       </c>
@@ -7325,11 +7325,11 @@
         <v>22.96</v>
       </c>
       <c r="Q11">
-        <f>SUM(N11,O11,P11)</f>
+        <f t="shared" si="0"/>
         <v>69.16</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>147</v>
       </c>
@@ -7379,11 +7379,11 @@
         <v>18.43</v>
       </c>
       <c r="Q12">
-        <f>SUM(N12,O12,P12)</f>
+        <f t="shared" si="0"/>
         <v>65.430000000000007</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>160</v>
       </c>
@@ -7433,11 +7433,11 @@
         <v>27.48</v>
       </c>
       <c r="Q13">
-        <f>SUM(N13,O13,P13)</f>
+        <f t="shared" si="0"/>
         <v>86.48</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>173</v>
       </c>
@@ -7487,11 +7487,11 @@
         <v>24</v>
       </c>
       <c r="Q14">
-        <f>SUM(N14,O14,P14)</f>
+        <f t="shared" si="0"/>
         <v>80.599999999999994</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>186</v>
       </c>
@@ -7541,11 +7541,11 @@
         <v>24</v>
       </c>
       <c r="Q15">
-        <f>SUM(N15,O15,P15)</f>
+        <f t="shared" si="0"/>
         <v>77.5</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>199</v>
       </c>
@@ -7595,11 +7595,11 @@
         <v>25.04</v>
       </c>
       <c r="Q16" s="30">
-        <f>SUM(N16,O16,P16)</f>
+        <f t="shared" si="0"/>
         <v>84.039999999999992</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>212</v>
       </c>
@@ -7649,11 +7649,11 @@
         <v>23.65</v>
       </c>
       <c r="Q17">
-        <f>SUM(N17,O17,P17)</f>
+        <f t="shared" si="0"/>
         <v>79.949999999999989</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>224</v>
       </c>
@@ -7703,11 +7703,11 @@
         <v>22.61</v>
       </c>
       <c r="Q18">
-        <f>SUM(N18,O18,P18)</f>
+        <f t="shared" si="0"/>
         <v>79.81</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>236</v>
       </c>
@@ -7757,11 +7757,11 @@
         <v>24.7</v>
       </c>
       <c r="Q19">
-        <f>SUM(N19,O19,P19)</f>
+        <f t="shared" si="0"/>
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>249</v>
       </c>
@@ -7811,11 +7811,11 @@
         <v>24.7</v>
       </c>
       <c r="Q20">
-        <f>SUM(N20,O20,P20)</f>
+        <f t="shared" si="0"/>
         <v>83.5</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>262</v>
       </c>
@@ -7865,11 +7865,11 @@
         <v>22.26</v>
       </c>
       <c r="Q21">
-        <f>SUM(N21,O21,P21)</f>
+        <f t="shared" si="0"/>
         <v>68.260000000000005</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>273</v>
       </c>
@@ -7919,11 +7919,11 @@
         <v>28.18</v>
       </c>
       <c r="Q22">
-        <f>SUM(N22,O22,P22)</f>
+        <f t="shared" si="0"/>
         <v>85.88</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>285</v>
       </c>
@@ -7973,11 +7973,11 @@
         <v>27.13</v>
       </c>
       <c r="Q23">
-        <f>SUM(N23,O23,P23)</f>
+        <f t="shared" si="0"/>
         <v>83.929999999999993</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -7996,7 +7996,7 @@
       <c r="P24" s="8"/>
       <c r="Q24" s="4"/>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -8015,40 +8015,40 @@
       <c r="P25" s="8"/>
       <c r="Q25" s="4"/>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="C27" t="s">
         <v>335</v>
       </c>
-      <c r="C27" t="s">
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="1" t="s">
+      <c r="B28" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="C28" t="s">
         <v>338</v>
       </c>
-      <c r="C28" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -8067,7 +8067,7 @@
       <c r="P29" s="8"/>
       <c r="Q29" s="4"/>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -8086,28 +8086,28 @@
       <c r="P30" s="8"/>
       <c r="Q30" s="4"/>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="B31" s="5" t="s">
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="33" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="33" t="s">
+      <c r="B32" s="34" t="s">
         <v>309</v>
-      </c>
-      <c r="B32" s="34" t="s">
-        <v>310</v>
       </c>
       <c r="C32" s="34"/>
       <c r="D32" s="34"/>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="33"/>
       <c r="B33" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -8129,31 +8129,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66CBED5A-119B-4DD0-A3C0-DD4B7D4EF36A}">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="N10" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N1" sqref="N1:N23"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="72" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="75" customWidth="1"/>
-    <col min="4" max="4" width="76.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="71.28515625" customWidth="1"/>
+    <col min="4" max="4" width="76.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="71.33203125" customWidth="1"/>
     <col min="6" max="6" width="80" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="73.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="61.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="75.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="60.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="61.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="46.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="62.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="36.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="73.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="61.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="75.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="60.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="61.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="46.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="62.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="36.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" ht="18.75">
+    <row r="1" spans="1:16" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8197,13 +8197,13 @@
         <v>13</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -8254,7 +8254,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
@@ -8305,7 +8305,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="12" customHeight="1">
+    <row r="4" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>43</v>
       </c>
@@ -8328,22 +8328,22 @@
         <v>49</v>
       </c>
       <c r="H4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I4" t="s">
         <v>51</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K4" t="s">
         <v>46</v>
       </c>
       <c r="L4" t="s">
+        <v>313</v>
+      </c>
+      <c r="M4" t="s">
         <v>314</v>
-      </c>
-      <c r="M4" t="s">
-        <v>315</v>
       </c>
       <c r="N4">
         <v>20</v>
@@ -8356,7 +8356,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>56</v>
       </c>
@@ -8382,7 +8382,7 @@
         <v>63</v>
       </c>
       <c r="I5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J5" t="s">
         <v>65</v>
@@ -8391,10 +8391,10 @@
         <v>46</v>
       </c>
       <c r="L5" t="s">
+        <v>316</v>
+      </c>
+      <c r="M5" t="s">
         <v>317</v>
-      </c>
-      <c r="M5" t="s">
-        <v>318</v>
       </c>
       <c r="N5">
         <v>30</v>
@@ -8407,7 +8407,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>69</v>
       </c>
@@ -8458,7 +8458,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>82</v>
       </c>
@@ -8509,7 +8509,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>95</v>
       </c>
@@ -8560,7 +8560,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>108</v>
       </c>
@@ -8611,7 +8611,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>121</v>
       </c>
@@ -8662,7 +8662,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>134</v>
       </c>
@@ -8713,7 +8713,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>147</v>
       </c>
@@ -8764,7 +8764,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>160</v>
       </c>
@@ -8815,7 +8815,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>173</v>
       </c>
@@ -8866,7 +8866,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>186</v>
       </c>
@@ -8917,7 +8917,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>199</v>
       </c>
@@ -8968,7 +8968,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>212</v>
       </c>
@@ -9019,7 +9019,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>224</v>
       </c>
@@ -9070,7 +9070,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>236</v>
       </c>
@@ -9121,7 +9121,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>249</v>
       </c>
@@ -9172,7 +9172,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>262</v>
       </c>
@@ -9223,7 +9223,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>273</v>
       </c>
@@ -9274,7 +9274,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>285</v>
       </c>
@@ -9325,7 +9325,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -9343,7 +9343,7 @@
       <c r="O24" s="8"/>
       <c r="P24" s="4"/>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -9361,40 +9361,40 @@
       <c r="O25" s="8"/>
       <c r="P25" s="4"/>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16">
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="C27" t="s">
         <v>342</v>
       </c>
-      <c r="C27" t="s">
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="28" spans="1:16">
-      <c r="A28" s="1" t="s">
+      <c r="B28" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="C28" t="s">
         <v>345</v>
       </c>
-      <c r="C28" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16">
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -9412,7 +9412,7 @@
       <c r="O29" s="8"/>
       <c r="P29" s="4"/>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -9430,33 +9430,33 @@
       <c r="O30" s="8"/>
       <c r="P30" s="4"/>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="B31" s="5" t="s">
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="33" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="32" spans="1:16">
-      <c r="A32" s="33" t="s">
+      <c r="B32" s="34" t="s">
         <v>309</v>
-      </c>
-      <c r="B32" s="34" t="s">
-        <v>310</v>
       </c>
       <c r="C32" s="34"/>
       <c r="D32" s="34"/>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="33"/>
       <c r="B33" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -9478,32 +9478,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{289C827E-09D4-481A-A67E-0EFC3E492384}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="O9" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O23" sqref="O23"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="72" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="75" customWidth="1"/>
-    <col min="4" max="4" width="76.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="71.28515625" customWidth="1"/>
+    <col min="4" max="4" width="76.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="71.33203125" customWidth="1"/>
     <col min="6" max="6" width="80" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="73.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="61.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="75.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="60.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="61.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="46.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="62.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="36.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="36.42578125" style="6" customWidth="1"/>
-    <col min="17" max="17" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="73.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="61.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="75.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="60.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="61.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="46.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="62.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="36.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="36.44140625" style="6" customWidth="1"/>
+    <col min="17" max="17" width="36.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" ht="20.25" customHeight="1">
+    <row r="1" spans="1:17" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9544,19 +9544,19 @@
         <v>12</v>
       </c>
       <c r="N1" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="O1" s="24" t="s">
         <v>348</v>
-      </c>
-      <c r="O1" s="24" t="s">
-        <v>349</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="29.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -9607,10 +9607,10 @@
         <v>1.08</v>
       </c>
       <c r="Q2" s="20" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="29.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
@@ -9661,10 +9661,10 @@
         <v>0.73</v>
       </c>
       <c r="Q3" s="20" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="12" customHeight="1">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>43</v>
       </c>
@@ -9687,22 +9687,22 @@
         <v>49</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I4" s="22" t="s">
         <v>51</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K4" s="22" t="s">
         <v>46</v>
       </c>
       <c r="L4" s="22" t="s">
+        <v>313</v>
+      </c>
+      <c r="M4" s="22" t="s">
         <v>314</v>
-      </c>
-      <c r="M4" s="22" t="s">
-        <v>315</v>
       </c>
       <c r="N4" s="26">
         <v>0</v>
@@ -9715,10 +9715,10 @@
         <v>0.27</v>
       </c>
       <c r="Q4" s="20" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>56</v>
       </c>
@@ -9744,7 +9744,7 @@
         <v>63</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J5" s="22" t="s">
         <v>65</v>
@@ -9753,10 +9753,10 @@
         <v>46</v>
       </c>
       <c r="L5" s="22" t="s">
+        <v>316</v>
+      </c>
+      <c r="M5" s="22" t="s">
         <v>317</v>
-      </c>
-      <c r="M5" s="22" t="s">
-        <v>318</v>
       </c>
       <c r="N5" s="26">
         <v>0</v>
@@ -9769,10 +9769,10 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="Q5" s="21" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>69</v>
       </c>
@@ -9822,7 +9822,7 @@
       </c>
       <c r="Q6" s="21"/>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>82</v>
       </c>
@@ -9874,7 +9874,7 @@
       </c>
       <c r="Q7" s="21"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>95</v>
       </c>
@@ -9926,7 +9926,7 @@
       </c>
       <c r="Q8" s="21"/>
     </row>
-    <row r="9" spans="1:17" ht="29.25">
+    <row r="9" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>108</v>
       </c>
@@ -9977,10 +9977,10 @@
         <v>0.73</v>
       </c>
       <c r="Q9" s="20" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="43.5">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>121</v>
       </c>
@@ -10031,10 +10031,10 @@
         <v>0.81</v>
       </c>
       <c r="Q10" s="20" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>134</v>
       </c>
@@ -10086,7 +10086,7 @@
       </c>
       <c r="Q11" s="21"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>147</v>
       </c>
@@ -10138,7 +10138,7 @@
       </c>
       <c r="Q12" s="21"/>
     </row>
-    <row r="13" spans="1:17" ht="57.75">
+    <row r="13" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>160</v>
       </c>
@@ -10189,10 +10189,10 @@
         <v>1.1800000000000002</v>
       </c>
       <c r="Q13" s="20" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="29.25">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>173</v>
       </c>
@@ -10243,10 +10243,10 @@
         <v>0.09</v>
       </c>
       <c r="Q14" s="20" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>186</v>
       </c>
@@ -10298,7 +10298,7 @@
       </c>
       <c r="Q15" s="21"/>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>199</v>
       </c>
@@ -10350,7 +10350,7 @@
       </c>
       <c r="Q16" s="21"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>212</v>
       </c>
@@ -10401,10 +10401,10 @@
         <v>0.54</v>
       </c>
       <c r="Q17" s="21" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="29.25">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>224</v>
       </c>
@@ -10455,10 +10455,10 @@
         <v>0.13500000000000001</v>
       </c>
       <c r="Q18" s="20" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="29.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>236</v>
       </c>
@@ -10509,10 +10509,10 @@
         <v>1.27</v>
       </c>
       <c r="Q19" s="20" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>249</v>
       </c>
@@ -10564,7 +10564,7 @@
       </c>
       <c r="Q20" s="21"/>
     </row>
-    <row r="21" spans="1:17" ht="43.5">
+    <row r="21" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>262</v>
       </c>
@@ -10615,10 +10615,10 @@
         <v>2.7E-2</v>
       </c>
       <c r="Q21" s="20" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="29.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>273</v>
       </c>
@@ -10669,10 +10669,10 @@
         <v>0.89100000000000001</v>
       </c>
       <c r="Q22" s="20" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="29.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>285</v>
       </c>
@@ -10723,10 +10723,10 @@
         <v>0.82</v>
       </c>
       <c r="Q23" s="20" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -10747,7 +10747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -10768,45 +10768,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>300</v>
-      </c>
       <c r="P26"/>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="C27" t="s">
         <v>365</v>
-      </c>
-      <c r="C27" t="s">
-        <v>366</v>
       </c>
       <c r="O27" s="19"/>
       <c r="P27"/>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="C28" t="s">
         <v>368</v>
-      </c>
-      <c r="C28" t="s">
-        <v>369</v>
       </c>
       <c r="O28" s="19"/>
       <c r="P28"/>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -10824,7 +10824,7 @@
       <c r="O29" s="8"/>
       <c r="P29" s="4"/>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -10842,34 +10842,34 @@
       <c r="O30" s="8"/>
       <c r="P30" s="4"/>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="P31"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="18" t="s">
         <v>308</v>
       </c>
-      <c r="P31"/>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="18" t="s">
+      <c r="B32" s="19" t="s">
         <v>309</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>310</v>
       </c>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
       <c r="P32"/>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="18"/>
       <c r="B33" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="P33"/>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
     </row>
   </sheetData>
@@ -10890,31 +10890,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18FFF526-E116-4DC6-8235-CFE7596CA50F}">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O4" sqref="O4"/>
+      <selection pane="topRight" activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="72" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="75" customWidth="1"/>
-    <col min="4" max="4" width="76.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="71.28515625" customWidth="1"/>
+    <col min="4" max="4" width="76.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="71.33203125" customWidth="1"/>
     <col min="6" max="6" width="80" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="73.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="61.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="75.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="60.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="61.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="46.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="62.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="36.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="73.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="61.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="75.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="60.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="61.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="46.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="62.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="36.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" ht="36">
+    <row r="1" spans="1:16" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -10955,16 +10955,16 @@
         <v>12</v>
       </c>
       <c r="N1" s="17" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -11015,7 +11015,7 @@
         <v>0.94100000000000006</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
@@ -11066,7 +11066,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="12" customHeight="1">
+    <row r="4" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>43</v>
       </c>
@@ -11089,22 +11089,22 @@
         <v>49</v>
       </c>
       <c r="H4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I4" t="s">
         <v>51</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K4" t="s">
         <v>46</v>
       </c>
       <c r="L4" t="s">
+        <v>313</v>
+      </c>
+      <c r="M4" t="s">
         <v>314</v>
-      </c>
-      <c r="M4" t="s">
-        <v>315</v>
       </c>
       <c r="N4" s="28">
         <v>0</v>
@@ -11117,7 +11117,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>56</v>
       </c>
@@ -11143,7 +11143,7 @@
         <v>63</v>
       </c>
       <c r="I5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J5" t="s">
         <v>65</v>
@@ -11152,10 +11152,10 @@
         <v>46</v>
       </c>
       <c r="L5" t="s">
+        <v>316</v>
+      </c>
+      <c r="M5" t="s">
         <v>317</v>
-      </c>
-      <c r="M5" t="s">
-        <v>318</v>
       </c>
       <c r="N5" s="28">
         <v>0</v>
@@ -11168,7 +11168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>69</v>
       </c>
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>82</v>
       </c>
@@ -11268,7 +11268,7 @@
         <v>0.95499999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>95</v>
       </c>
@@ -11319,7 +11319,7 @@
         <v>0.90100000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>108</v>
       </c>
@@ -11370,7 +11370,7 @@
         <v>0.99099999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>121</v>
       </c>
@@ -11421,7 +11421,7 @@
         <v>0.5625</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>134</v>
       </c>
@@ -11472,7 +11472,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>147</v>
       </c>
@@ -11523,7 +11523,7 @@
         <v>0.85499999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>160</v>
       </c>
@@ -11574,7 +11574,7 @@
         <v>0.97389999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>173</v>
       </c>
@@ -11625,7 +11625,7 @@
         <v>0.85499999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>186</v>
       </c>
@@ -11676,7 +11676,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>199</v>
       </c>
@@ -11727,7 +11727,7 @@
         <v>0.77500000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>212</v>
       </c>
@@ -11778,7 +11778,7 @@
         <v>0.81500000000000006</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>224</v>
       </c>
@@ -11829,7 +11829,7 @@
         <v>0.85499999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>236</v>
       </c>
@@ -11880,7 +11880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>249</v>
       </c>
@@ -11931,7 +11931,7 @@
         <v>0.58499999999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>262</v>
       </c>
@@ -11982,7 +11982,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>273</v>
       </c>
@@ -12033,7 +12033,7 @@
         <v>0.93200000000000005</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>285</v>
       </c>
@@ -12084,7 +12084,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -12102,7 +12102,7 @@
       <c r="O24" s="8"/>
       <c r="P24" s="4"/>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -12120,44 +12120,44 @@
       <c r="O25" s="8"/>
       <c r="P25" s="4"/>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>300</v>
       </c>
       <c r="O26" s="29">
         <f>AVERAGE(O2:O23)</f>
         <v>0.66887619047619051</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="C27" t="s">
         <v>372</v>
       </c>
-      <c r="C27" t="s">
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="28" spans="1:16">
-      <c r="A28" s="1" t="s">
+      <c r="B28" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="C28" t="s">
         <v>375</v>
       </c>
-      <c r="C28" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16">
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -12175,7 +12175,7 @@
       <c r="O29" s="8"/>
       <c r="P29" s="4"/>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -12193,31 +12193,31 @@
       <c r="O30" s="8"/>
       <c r="P30" s="4"/>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="B31" s="5" t="s">
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="33" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="32" spans="1:16">
-      <c r="A32" s="33" t="s">
+      <c r="B32" s="34" t="s">
         <v>309</v>
-      </c>
-      <c r="B32" s="34" t="s">
-        <v>310</v>
       </c>
       <c r="C32" s="34"/>
       <c r="D32" s="34"/>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="33"/>
       <c r="B33" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
     </row>
   </sheetData>
@@ -12243,40 +12243,40 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.140625" customWidth="1"/>
+    <col min="1" max="1" width="32.44140625" customWidth="1"/>
+    <col min="2" max="2" width="30.44140625" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="24.44140625" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="B1" t="s">
         <v>377</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>378</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>379</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>380</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>381</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
         <v>382</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="14" t="s">
-        <v>383</v>
       </c>
       <c r="B2">
         <v>68</v>
@@ -12285,18 +12285,18 @@
         <v>98.240000000000009</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F2" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B3">
         <v>61.5</v>
@@ -12305,18 +12305,18 @@
         <v>98.22999999999999</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F3" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B4">
         <v>69.600000000000009</v>
@@ -12325,18 +12325,18 @@
         <v>96.16</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F4" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B5">
         <v>74</v>
@@ -12345,18 +12345,18 @@
         <v>95.759999999999991</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F5" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B6">
         <v>69.899999999999991</v>
@@ -12365,18 +12365,18 @@
         <v>94.02</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F6" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B7">
         <v>67.400000000000006</v>
@@ -12385,18 +12385,18 @@
         <v>93.1</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F7" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B8">
         <v>62.9</v>
@@ -12405,18 +12405,18 @@
         <v>92.72</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F8" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B9">
         <v>63.2</v>
@@ -12425,18 +12425,18 @@
         <v>92.7</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F9" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B10">
         <v>63.8</v>
@@ -12445,18 +12445,18 @@
         <v>91.15</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F10" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B11">
         <v>62.5</v>
@@ -12465,18 +12465,18 @@
         <v>89.66</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F11" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B12">
         <v>67.599999999999994</v>
@@ -12485,18 +12485,18 @@
         <v>89</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F12" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B13">
         <v>63.599999999999994</v>
@@ -12505,18 +12505,18 @@
         <v>86.8</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F13" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B14">
         <v>77.099999999999994</v>
@@ -12525,16 +12525,16 @@
         <v>84.39</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F14" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>69</v>
       </c>
@@ -12545,18 +12545,18 @@
         <v>83.65</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F15" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B16">
         <v>70.599999999999994</v>
@@ -12565,18 +12565,18 @@
         <v>82.44</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F16" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B17">
         <v>56.8</v>
@@ -12585,18 +12585,18 @@
         <v>81.97999999999999</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F17" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B18">
         <v>63.4</v>
@@ -12605,18 +12605,18 @@
         <v>81.849999999999994</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F18" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B19">
         <v>65.2</v>
@@ -12625,18 +12625,18 @@
         <v>78.39</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F19" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B20">
         <v>64</v>
@@ -12645,18 +12645,18 @@
         <v>77.45</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F20" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B21">
         <v>50.1</v>
@@ -12665,18 +12665,18 @@
         <v>77.14</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F21" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B22">
         <v>51.7</v>
@@ -12685,18 +12685,18 @@
         <v>72.02000000000001</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F22" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B23" s="11">
         <v>42.9</v>
@@ -12705,10 +12705,10 @@
         <v>56.25</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F23" s="15">
         <v>1</v>
@@ -12720,35 +12720,15 @@
   </sortState>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" xr:uid="{18437234-E7A0-4040-B68E-743C4B713142}"/>
-    <hyperlink ref="E3:E23" r:id="rId2" xr:uid="{6DE8E8A0-6DFA-4AF2-950F-C461BBED6B3F}"/>
+    <hyperlink ref="E3:E23" r:id="rId2" display="https://sharing.clickup.com/90181072525/b/h/2kzkbxmd-538/e21e3d8c6033662" xr:uid="{6DE8E8A0-6DFA-4AF2-950F-C461BBED6B3F}"/>
     <hyperlink ref="D3" r:id="rId3" xr:uid="{F7E73B28-9967-435A-9393-B7403D6BA73A}"/>
-    <hyperlink ref="D3:D23" r:id="rId4" xr:uid="{874B7360-1AFD-4272-9A8F-96B3CB2DA9B6}"/>
+    <hyperlink ref="D3:D23" r:id="rId4" display="https://github.com/CodelineAtyab/OrbitXO" xr:uid="{874B7360-1AFD-4272-9A8F-96B3CB2DA9B6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="5524ecfe-089c-425a-a4be-7743da73ddfc" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7112d4b0-5493-499c-a8a1-c4cefa8f8360">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CC4386AB3068CD42B8F0F14A3B25C6E6" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1b0865c603b059e198cdfbdcd5fd1e24">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7112d4b0-5493-499c-a8a1-c4cefa8f8360" xmlns:ns3="5524ecfe-089c-425a-a4be-7743da73ddfc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b01538475ea0a03af6b38dbffea6db4f" ns2:_="" ns3:_="">
     <xsd:import namespace="7112d4b0-5493-499c-a8a1-c4cefa8f8360"/>
@@ -12983,14 +12963,60 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="5524ecfe-089c-425a-a4be-7743da73ddfc" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7112d4b0-5493-499c-a8a1-c4cefa8f8360">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A92F8EAB-94F8-4973-85AA-EF84B5AC7367}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F36AA35-EE34-488A-B426-A5F00BF26E10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="7112d4b0-5493-499c-a8a1-c4cefa8f8360"/>
+    <ds:schemaRef ds:uri="5524ecfe-089c-425a-a4be-7743da73ddfc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3006C25A-5E3C-49E7-B071-5EAE6BA5B6FE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3006C25A-5E3C-49E7-B071-5EAE6BA5B6FE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="5524ecfe-089c-425a-a4be-7743da73ddfc"/>
+    <ds:schemaRef ds:uri="7112d4b0-5493-499c-a8a1-c4cefa8f8360"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F36AA35-EE34-488A-B426-A5F00BF26E10}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A92F8EAB-94F8-4973-85AA-EF84B5AC7367}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/input_data/team_code_orbit_data.xlsx
+++ b/input_data/team_code_orbit_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SyedAtyabHussain\Documents\work_area\PerformanceReportGenerator\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC5AF9D-E54F-49EC-931E-2DCA51644A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8681311F-06D7-45E8-B09B-C78CF983AD9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{6157CC41-DCF7-4F8D-AFDE-C223C9483824}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2326" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2326" uniqueCount="424">
   <si>
     <t>Name</t>
   </si>
@@ -1165,9 +1165,6 @@
   </si>
   <si>
     <t>Sprint commitments vs deliveries total score (out of 10%)</t>
-  </si>
-  <si>
-    <t>Tecnical Interview (out of 90%)</t>
   </si>
   <si>
     <t>Comments</t>
@@ -2127,9 +2124,9 @@
     <tableColumn id="12" xr3:uid="{D6BCF59B-0D54-4281-BDAD-1CB545376E44}" name="Decision Making"/>
     <tableColumn id="13" xr3:uid="{B05021CB-F518-4A3A-89B3-3E52E5FF2274}" name="Punctuality"/>
     <tableColumn id="14" xr3:uid="{7695CCAD-0913-4210-9418-99465480AA62}" name="Sprint commitments vs deliveries total score (out of 10%)"/>
-    <tableColumn id="15" xr3:uid="{3DF9F017-2960-4559-ACB1-F3D258EBB795}" name="Tecnical Interview (out of 90%)" dataDxfId="1"/>
+    <tableColumn id="15" xr3:uid="{3DF9F017-2960-4559-ACB1-F3D258EBB795}" name="Final Evaluation (out of 90%)" dataDxfId="1"/>
     <tableColumn id="17" xr3:uid="{BF21469E-331F-4FEE-8F48-9FF26DD1C857}" name="Total Score (out of 100%)" dataDxfId="0">
-      <calculatedColumnFormula>SUM(Table1[[#This Row],[Sprint commitments vs deliveries total score (out of 10%)]:[Tecnical Interview (out of 90%)]])</calculatedColumnFormula>
+      <calculatedColumnFormula>SUM(Table1[[#This Row],[Sprint commitments vs deliveries total score (out of 10%)]:[Final Evaluation (out of 90%)]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" xr3:uid="{AC0CCED6-3179-4D61-A3C7-B75FA9970889}" name="Comments"/>
   </tableColumns>
@@ -3763,7 +3760,7 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>298</v>
@@ -5181,7 +5178,7 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>298</v>
@@ -6599,7 +6596,7 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>298</v>
@@ -8017,7 +8014,7 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>298</v>
@@ -9363,7 +9360,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>298</v>
@@ -9478,9 +9475,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{289C827E-09D4-481A-A67E-0EFC3E492384}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A26" sqref="A26"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9547,13 +9544,13 @@
         <v>347</v>
       </c>
       <c r="O1" s="24" t="s">
-        <v>348</v>
+        <v>368</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
@@ -9603,11 +9600,11 @@
         <v>1.08</v>
       </c>
       <c r="P2" s="27">
-        <f>SUM(Table1[[#This Row],[Sprint commitments vs deliveries total score (out of 10%)]:[Tecnical Interview (out of 90%)]])</f>
+        <f>SUM(Table1[[#This Row],[Sprint commitments vs deliveries total score (out of 10%)]:[Final Evaluation (out of 90%)]])</f>
         <v>1.08</v>
       </c>
       <c r="Q2" s="20" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
@@ -9657,11 +9654,11 @@
         <v>0.63</v>
       </c>
       <c r="P3" s="27">
-        <f>SUM(Table1[[#This Row],[Sprint commitments vs deliveries total score (out of 10%)]:[Tecnical Interview (out of 90%)]])</f>
+        <f>SUM(Table1[[#This Row],[Sprint commitments vs deliveries total score (out of 10%)]:[Final Evaluation (out of 90%)]])</f>
         <v>0.73</v>
       </c>
       <c r="Q3" s="20" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -9711,11 +9708,11 @@
         <v>0.27</v>
       </c>
       <c r="P4" s="27">
-        <f>SUM(Table1[[#This Row],[Sprint commitments vs deliveries total score (out of 10%)]:[Tecnical Interview (out of 90%)]])</f>
+        <f>SUM(Table1[[#This Row],[Sprint commitments vs deliveries total score (out of 10%)]:[Final Evaluation (out of 90%)]])</f>
         <v>0.27</v>
       </c>
       <c r="Q4" s="20" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -9765,11 +9762,11 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="P5" s="27">
-        <f>SUM(Table1[[#This Row],[Sprint commitments vs deliveries total score (out of 10%)]:[Tecnical Interview (out of 90%)]])</f>
+        <f>SUM(Table1[[#This Row],[Sprint commitments vs deliveries total score (out of 10%)]:[Final Evaluation (out of 90%)]])</f>
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="Q5" s="21" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9817,7 +9814,7 @@
       </c>
       <c r="O6" s="25"/>
       <c r="P6" s="27">
-        <f>SUM(Table1[[#This Row],[Sprint commitments vs deliveries total score (out of 10%)]:[Tecnical Interview (out of 90%)]])</f>
+        <f>SUM(Table1[[#This Row],[Sprint commitments vs deliveries total score (out of 10%)]:[Final Evaluation (out of 90%)]])</f>
         <v>0</v>
       </c>
       <c r="Q6" s="21"/>
@@ -9869,7 +9866,7 @@
         <v>0.27</v>
       </c>
       <c r="P7" s="27">
-        <f>SUM(Table1[[#This Row],[Sprint commitments vs deliveries total score (out of 10%)]:[Tecnical Interview (out of 90%)]])</f>
+        <f>SUM(Table1[[#This Row],[Sprint commitments vs deliveries total score (out of 10%)]:[Final Evaluation (out of 90%)]])</f>
         <v>0.37</v>
       </c>
       <c r="Q7" s="21"/>
@@ -9921,7 +9918,7 @@
         <v>0.54</v>
       </c>
       <c r="P8" s="27">
-        <f>SUM(Table1[[#This Row],[Sprint commitments vs deliveries total score (out of 10%)]:[Tecnical Interview (out of 90%)]])</f>
+        <f>SUM(Table1[[#This Row],[Sprint commitments vs deliveries total score (out of 10%)]:[Final Evaluation (out of 90%)]])</f>
         <v>0.64</v>
       </c>
       <c r="Q8" s="21"/>
@@ -9973,11 +9970,11 @@
         <v>0.63</v>
       </c>
       <c r="P9" s="27">
-        <f>SUM(Table1[[#This Row],[Sprint commitments vs deliveries total score (out of 10%)]:[Tecnical Interview (out of 90%)]])</f>
+        <f>SUM(Table1[[#This Row],[Sprint commitments vs deliveries total score (out of 10%)]:[Final Evaluation (out of 90%)]])</f>
         <v>0.73</v>
       </c>
       <c r="Q9" s="20" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
@@ -10027,11 +10024,11 @@
         <v>0.81</v>
       </c>
       <c r="P10" s="27">
-        <f>SUM(Table1[[#This Row],[Sprint commitments vs deliveries total score (out of 10%)]:[Tecnical Interview (out of 90%)]])</f>
+        <f>SUM(Table1[[#This Row],[Sprint commitments vs deliveries total score (out of 10%)]:[Final Evaluation (out of 90%)]])</f>
         <v>0.81</v>
       </c>
       <c r="Q10" s="20" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -10081,7 +10078,7 @@
         <v>0.27</v>
       </c>
       <c r="P11" s="27">
-        <f>SUM(Table1[[#This Row],[Sprint commitments vs deliveries total score (out of 10%)]:[Tecnical Interview (out of 90%)]])</f>
+        <f>SUM(Table1[[#This Row],[Sprint commitments vs deliveries total score (out of 10%)]:[Final Evaluation (out of 90%)]])</f>
         <v>0.27</v>
       </c>
       <c r="Q11" s="21"/>
@@ -10133,7 +10130,7 @@
         <v>0.27</v>
       </c>
       <c r="P12" s="27">
-        <f>SUM(Table1[[#This Row],[Sprint commitments vs deliveries total score (out of 10%)]:[Tecnical Interview (out of 90%)]])</f>
+        <f>SUM(Table1[[#This Row],[Sprint commitments vs deliveries total score (out of 10%)]:[Final Evaluation (out of 90%)]])</f>
         <v>0.27</v>
       </c>
       <c r="Q12" s="21"/>
@@ -10185,11 +10182,11 @@
         <v>1.08</v>
       </c>
       <c r="P13" s="27">
-        <f>SUM(Table1[[#This Row],[Sprint commitments vs deliveries total score (out of 10%)]:[Tecnical Interview (out of 90%)]])</f>
+        <f>SUM(Table1[[#This Row],[Sprint commitments vs deliveries total score (out of 10%)]:[Final Evaluation (out of 90%)]])</f>
         <v>1.1800000000000002</v>
       </c>
       <c r="Q13" s="20" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
@@ -10239,11 +10236,11 @@
         <v>0.09</v>
       </c>
       <c r="P14" s="27">
-        <f>SUM(Table1[[#This Row],[Sprint commitments vs deliveries total score (out of 10%)]:[Tecnical Interview (out of 90%)]])</f>
+        <f>SUM(Table1[[#This Row],[Sprint commitments vs deliveries total score (out of 10%)]:[Final Evaluation (out of 90%)]])</f>
         <v>0.09</v>
       </c>
       <c r="Q14" s="20" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -10293,7 +10290,7 @@
         <v>0.36</v>
       </c>
       <c r="P15" s="27">
-        <f>SUM(Table1[[#This Row],[Sprint commitments vs deliveries total score (out of 10%)]:[Tecnical Interview (out of 90%)]])</f>
+        <f>SUM(Table1[[#This Row],[Sprint commitments vs deliveries total score (out of 10%)]:[Final Evaluation (out of 90%)]])</f>
         <v>0.36</v>
       </c>
       <c r="Q15" s="21"/>
@@ -10345,7 +10342,7 @@
         <v>0.45</v>
       </c>
       <c r="P16" s="27">
-        <f>SUM(Table1[[#This Row],[Sprint commitments vs deliveries total score (out of 10%)]:[Tecnical Interview (out of 90%)]])</f>
+        <f>SUM(Table1[[#This Row],[Sprint commitments vs deliveries total score (out of 10%)]:[Final Evaluation (out of 90%)]])</f>
         <v>0.55000000000000004</v>
       </c>
       <c r="Q16" s="21"/>
@@ -10397,11 +10394,11 @@
         <v>0.54</v>
       </c>
       <c r="P17" s="27">
-        <f>SUM(Table1[[#This Row],[Sprint commitments vs deliveries total score (out of 10%)]:[Tecnical Interview (out of 90%)]])</f>
+        <f>SUM(Table1[[#This Row],[Sprint commitments vs deliveries total score (out of 10%)]:[Final Evaluation (out of 90%)]])</f>
         <v>0.54</v>
       </c>
       <c r="Q17" s="21" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
@@ -10451,11 +10448,11 @@
         <v>0.13500000000000001</v>
       </c>
       <c r="P18" s="27">
-        <f>SUM(Table1[[#This Row],[Sprint commitments vs deliveries total score (out of 10%)]:[Tecnical Interview (out of 90%)]])</f>
+        <f>SUM(Table1[[#This Row],[Sprint commitments vs deliveries total score (out of 10%)]:[Final Evaluation (out of 90%)]])</f>
         <v>0.13500000000000001</v>
       </c>
       <c r="Q18" s="20" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
@@ -10505,11 +10502,11 @@
         <v>1.17</v>
       </c>
       <c r="P19" s="27">
-        <f>SUM(Table1[[#This Row],[Sprint commitments vs deliveries total score (out of 10%)]:[Tecnical Interview (out of 90%)]])</f>
+        <f>SUM(Table1[[#This Row],[Sprint commitments vs deliveries total score (out of 10%)]:[Final Evaluation (out of 90%)]])</f>
         <v>1.27</v>
       </c>
       <c r="Q19" s="20" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -10559,7 +10556,7 @@
         <v>0.54</v>
       </c>
       <c r="P20" s="27">
-        <f>SUM(Table1[[#This Row],[Sprint commitments vs deliveries total score (out of 10%)]:[Tecnical Interview (out of 90%)]])</f>
+        <f>SUM(Table1[[#This Row],[Sprint commitments vs deliveries total score (out of 10%)]:[Final Evaluation (out of 90%)]])</f>
         <v>0.54</v>
       </c>
       <c r="Q20" s="21"/>
@@ -10611,11 +10608,11 @@
         <v>2.7E-2</v>
       </c>
       <c r="P21" s="27">
-        <f>SUM(Table1[[#This Row],[Sprint commitments vs deliveries total score (out of 10%)]:[Tecnical Interview (out of 90%)]])</f>
+        <f>SUM(Table1[[#This Row],[Sprint commitments vs deliveries total score (out of 10%)]:[Final Evaluation (out of 90%)]])</f>
         <v>2.7E-2</v>
       </c>
       <c r="Q21" s="20" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
@@ -10665,11 +10662,11 @@
         <v>0.89100000000000001</v>
       </c>
       <c r="P22" s="27">
-        <f>SUM(Table1[[#This Row],[Sprint commitments vs deliveries total score (out of 10%)]:[Tecnical Interview (out of 90%)]])</f>
+        <f>SUM(Table1[[#This Row],[Sprint commitments vs deliveries total score (out of 10%)]:[Final Evaluation (out of 90%)]])</f>
         <v>0.89100000000000001</v>
       </c>
       <c r="Q22" s="20" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
@@ -10719,11 +10716,11 @@
         <v>0.72</v>
       </c>
       <c r="P23" s="27">
-        <f>SUM(Table1[[#This Row],[Sprint commitments vs deliveries total score (out of 10%)]:[Tecnical Interview (out of 90%)]])</f>
+        <f>SUM(Table1[[#This Row],[Sprint commitments vs deliveries total score (out of 10%)]:[Final Evaluation (out of 90%)]])</f>
         <v>0.82</v>
       </c>
       <c r="Q23" s="20" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -10743,7 +10740,7 @@
       <c r="N24" s="4"/>
       <c r="O24" s="8"/>
       <c r="P24" s="4">
-        <f>SUM(Table1[[#This Row],[Sprint commitments vs deliveries total score (out of 10%)]:[Tecnical Interview (out of 90%)]])</f>
+        <f>SUM(Table1[[#This Row],[Sprint commitments vs deliveries total score (out of 10%)]:[Final Evaluation (out of 90%)]])</f>
         <v>0</v>
       </c>
     </row>
@@ -10764,13 +10761,13 @@
       <c r="N25" s="4"/>
       <c r="O25" s="8"/>
       <c r="P25" s="4">
-        <f>SUM(Table1[[#This Row],[Sprint commitments vs deliveries total score (out of 10%)]:[Tecnical Interview (out of 90%)]])</f>
+        <f>SUM(Table1[[#This Row],[Sprint commitments vs deliveries total score (out of 10%)]:[Final Evaluation (out of 90%)]])</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>298</v>
@@ -10782,26 +10779,26 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="C27" t="s">
         <v>364</v>
-      </c>
-      <c r="C27" t="s">
-        <v>365</v>
       </c>
       <c r="O27" s="19"/>
       <c r="P27"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="C28" t="s">
         <v>367</v>
-      </c>
-      <c r="C28" t="s">
-        <v>368</v>
       </c>
       <c r="O28" s="19"/>
       <c r="P28"/>
@@ -10892,7 +10889,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O21" sqref="O21"/>
+      <selection pane="topRight" activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10958,7 +10955,7 @@
         <v>347</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>16</v>
@@ -12122,7 +12119,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>298</v>
@@ -12137,24 +12134,24 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="C27" t="s">
         <v>371</v>
-      </c>
-      <c r="C27" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="C28" t="s">
         <v>374</v>
-      </c>
-      <c r="C28" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
@@ -12256,27 +12253,27 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="B1" t="s">
         <v>376</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>377</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>378</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>379</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>380</v>
-      </c>
-      <c r="F1" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B2">
         <v>68</v>
@@ -12288,7 +12285,7 @@
         <v>307</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F2" s="15">
         <v>1</v>
@@ -12296,7 +12293,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B3">
         <v>61.5</v>
@@ -12316,7 +12313,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B4">
         <v>69.600000000000009</v>
@@ -12328,7 +12325,7 @@
         <v>307</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F4" s="15">
         <v>1</v>
@@ -12336,7 +12333,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B5">
         <v>74</v>
@@ -12348,7 +12345,7 @@
         <v>307</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F5" s="15">
         <v>1</v>
@@ -12356,7 +12353,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B6">
         <v>69.899999999999991</v>
@@ -12368,7 +12365,7 @@
         <v>307</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F6" s="15">
         <v>1</v>
@@ -12376,7 +12373,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B7">
         <v>67.400000000000006</v>
@@ -12388,7 +12385,7 @@
         <v>307</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F7" s="15">
         <v>1</v>
@@ -12396,7 +12393,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B8">
         <v>62.9</v>
@@ -12408,7 +12405,7 @@
         <v>307</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F8" s="15">
         <v>1</v>
@@ -12416,7 +12413,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B9">
         <v>63.2</v>
@@ -12428,7 +12425,7 @@
         <v>307</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F9" s="15">
         <v>1</v>
@@ -12436,7 +12433,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B10">
         <v>63.8</v>
@@ -12448,7 +12445,7 @@
         <v>307</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F10" s="15">
         <v>1</v>
@@ -12456,7 +12453,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B11">
         <v>62.5</v>
@@ -12468,7 +12465,7 @@
         <v>307</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F11" s="15">
         <v>1</v>
@@ -12476,7 +12473,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B12">
         <v>67.599999999999994</v>
@@ -12488,7 +12485,7 @@
         <v>307</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F12" s="15">
         <v>1</v>
@@ -12496,7 +12493,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B13">
         <v>63.599999999999994</v>
@@ -12508,7 +12505,7 @@
         <v>307</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F13" s="15">
         <v>1</v>
@@ -12516,7 +12513,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B14">
         <v>77.099999999999994</v>
@@ -12528,7 +12525,7 @@
         <v>307</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F14" s="15">
         <v>1</v>
@@ -12548,7 +12545,7 @@
         <v>307</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F15" s="15">
         <v>1</v>
@@ -12556,7 +12553,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B16">
         <v>70.599999999999994</v>
@@ -12568,7 +12565,7 @@
         <v>307</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F16" s="15">
         <v>1</v>
@@ -12576,7 +12573,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B17">
         <v>56.8</v>
@@ -12588,7 +12585,7 @@
         <v>307</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F17" s="15">
         <v>1</v>
@@ -12596,7 +12593,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B18">
         <v>63.4</v>
@@ -12608,7 +12605,7 @@
         <v>307</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F18" s="15">
         <v>1</v>
@@ -12616,7 +12613,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B19">
         <v>65.2</v>
@@ -12628,7 +12625,7 @@
         <v>307</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F19" s="15">
         <v>1</v>
@@ -12636,7 +12633,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B20">
         <v>64</v>
@@ -12648,7 +12645,7 @@
         <v>307</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F20" s="15">
         <v>1</v>
@@ -12656,7 +12653,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B21">
         <v>50.1</v>
@@ -12668,7 +12665,7 @@
         <v>307</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F21" s="15">
         <v>1</v>
@@ -12676,7 +12673,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B22">
         <v>51.7</v>
@@ -12688,7 +12685,7 @@
         <v>307</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F22" s="15">
         <v>1</v>
@@ -12696,7 +12693,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B23" s="11">
         <v>42.9</v>
@@ -12708,7 +12705,7 @@
         <v>307</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F23" s="15">
         <v>1</v>
@@ -12964,6 +12961,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="5524ecfe-089c-425a-a4be-7743da73ddfc" xsi:nil="true"/>
@@ -12972,15 +12978,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13003,6 +13000,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A92F8EAB-94F8-4973-85AA-EF84B5AC7367}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3006C25A-5E3C-49E7-B071-5EAE6BA5B6FE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -13011,12 +13016,4 @@
     <ds:schemaRef ds:uri="7112d4b0-5493-499c-a8a1-c4cefa8f8360"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A92F8EAB-94F8-4973-85AA-EF84B5AC7367}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/input_data/team_code_orbit_data.xlsx
+++ b/input_data/team_code_orbit_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SyedAtyabHussain\Documents\work_area\PerformanceReportGenerator\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8681311F-06D7-45E8-B09B-C78CF983AD9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92243D5-DAC6-4C26-A5FA-2305013C1060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{6157CC41-DCF7-4F8D-AFDE-C223C9483824}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{6157CC41-DCF7-4F8D-AFDE-C223C9483824}"/>
   </bookViews>
   <sheets>
     <sheet name="April 2025" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2326" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2303" uniqueCount="423">
   <si>
     <t>Name</t>
   </si>
@@ -1093,9 +1093,6 @@
   </si>
   <si>
     <t>Web APIs</t>
-  </si>
-  <si>
-    <t>Mini Quizzes total score (out of 00%)</t>
   </si>
   <si>
     <t>Monthly Evaluation (out of 50%)</t>
@@ -3760,7 +3757,7 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>298</v>
@@ -5178,7 +5175,7 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>298</v>
@@ -5288,11 +5285,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84E8CBCC-0E08-436D-8B3C-C0F491552F1B}">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5310,12 +5307,11 @@
     <col min="12" max="12" width="61.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="46.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="62.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="39.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="36.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="36.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5358,17 +5354,14 @@
       <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="P1" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -5411,18 +5404,15 @@
       <c r="N2">
         <v>50</v>
       </c>
-      <c r="O2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P2" s="6">
-        <v>38.729999999999997</v>
-      </c>
-      <c r="Q2">
-        <f t="shared" ref="Q2:Q23" si="0">SUM(N2,O2,P2)</f>
-        <v>88.72999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O2" s="6">
+        <v>48.41</v>
+      </c>
+      <c r="P2">
+        <f>SUM(N2,O2)</f>
+        <v>98.41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
@@ -5465,18 +5455,15 @@
       <c r="N3">
         <v>50</v>
       </c>
-      <c r="O3" t="s">
-        <v>46</v>
-      </c>
-      <c r="P3" s="6">
-        <v>36.96</v>
-      </c>
-      <c r="Q3">
-        <f t="shared" si="0"/>
-        <v>86.960000000000008</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O3" s="6">
+        <v>46.2</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P23" si="0">SUM(N3,O3)</f>
+        <v>96.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>43</v>
       </c>
@@ -5502,7 +5489,7 @@
         <v>311</v>
       </c>
       <c r="I4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J4" s="16" t="s">
         <v>312</v>
@@ -5519,18 +5506,15 @@
       <c r="N4">
         <v>20</v>
       </c>
-      <c r="O4" t="s">
-        <v>46</v>
-      </c>
-      <c r="P4" s="6">
+      <c r="O4" s="6">
         <v>0</v>
       </c>
-      <c r="Q4">
+      <c r="P4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>56</v>
       </c>
@@ -5573,18 +5557,15 @@
       <c r="N5">
         <v>50</v>
       </c>
-      <c r="O5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P5" s="6">
-        <v>31.9</v>
-      </c>
-      <c r="Q5">
+      <c r="O5" s="6">
+        <v>39.880000000000003</v>
+      </c>
+      <c r="P5">
         <f t="shared" si="0"/>
-        <v>81.900000000000006</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+        <v>89.88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>69</v>
       </c>
@@ -5627,18 +5608,15 @@
       <c r="N6">
         <v>50</v>
       </c>
-      <c r="O6" t="s">
-        <v>46</v>
-      </c>
-      <c r="P6" s="6">
-        <v>27.85</v>
-      </c>
-      <c r="Q6">
+      <c r="O6" s="6">
+        <v>34.81</v>
+      </c>
+      <c r="P6">
         <f t="shared" si="0"/>
-        <v>77.849999999999994</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+        <v>84.81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>82</v>
       </c>
@@ -5681,18 +5659,15 @@
       <c r="N7">
         <v>40</v>
       </c>
-      <c r="O7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P7" s="6">
-        <v>30.89</v>
-      </c>
-      <c r="Q7">
+      <c r="O7" s="6">
+        <v>38.61</v>
+      </c>
+      <c r="P7">
         <f t="shared" si="0"/>
-        <v>70.89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+        <v>78.61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>95</v>
       </c>
@@ -5735,18 +5710,15 @@
       <c r="N8">
         <v>50</v>
       </c>
-      <c r="O8" t="s">
-        <v>46</v>
-      </c>
-      <c r="P8" s="6">
-        <v>36.200000000000003</v>
-      </c>
-      <c r="Q8">
+      <c r="O8" s="6">
+        <v>45.25</v>
+      </c>
+      <c r="P8">
         <f t="shared" si="0"/>
-        <v>86.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+        <v>95.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>108</v>
       </c>
@@ -5789,18 +5761,15 @@
       <c r="N9">
         <v>50</v>
       </c>
-      <c r="O9" t="s">
-        <v>46</v>
-      </c>
-      <c r="P9" s="6">
-        <v>31.65</v>
-      </c>
-      <c r="Q9">
+      <c r="O9" s="6">
+        <v>39.56</v>
+      </c>
+      <c r="P9">
         <f t="shared" si="0"/>
-        <v>81.650000000000006</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+        <v>89.56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>121</v>
       </c>
@@ -5843,18 +5812,15 @@
       <c r="N10">
         <v>40</v>
       </c>
-      <c r="O10" t="s">
-        <v>46</v>
-      </c>
-      <c r="P10" s="6">
-        <v>34.68</v>
-      </c>
-      <c r="Q10">
+      <c r="O10" s="6">
+        <v>43.35</v>
+      </c>
+      <c r="P10">
         <f t="shared" si="0"/>
-        <v>74.680000000000007</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+        <v>83.35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>134</v>
       </c>
@@ -5897,18 +5863,15 @@
       <c r="N11">
         <v>40</v>
       </c>
-      <c r="O11" t="s">
-        <v>46</v>
-      </c>
-      <c r="P11" s="6">
-        <v>25.82</v>
-      </c>
-      <c r="Q11">
+      <c r="O11" s="6">
+        <v>32.28</v>
+      </c>
+      <c r="P11">
         <f t="shared" si="0"/>
-        <v>65.819999999999993</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+        <v>72.28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>147</v>
       </c>
@@ -5951,18 +5914,15 @@
       <c r="N12">
         <v>40</v>
       </c>
-      <c r="O12" t="s">
-        <v>46</v>
-      </c>
-      <c r="P12" s="6">
-        <v>35.44</v>
-      </c>
-      <c r="Q12">
+      <c r="O12" s="6">
+        <v>44.3</v>
+      </c>
+      <c r="P12">
         <f t="shared" si="0"/>
-        <v>75.44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+        <v>84.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>160</v>
       </c>
@@ -6005,18 +5965,15 @@
       <c r="N13">
         <v>50</v>
       </c>
-      <c r="O13" t="s">
-        <v>46</v>
-      </c>
-      <c r="P13" s="6">
-        <v>39.24</v>
-      </c>
-      <c r="Q13">
+      <c r="O13" s="6">
+        <v>49.05</v>
+      </c>
+      <c r="P13">
         <f t="shared" si="0"/>
-        <v>89.240000000000009</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+        <v>99.05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>173</v>
       </c>
@@ -6059,18 +6016,15 @@
       <c r="N14">
         <v>50</v>
       </c>
-      <c r="O14" t="s">
-        <v>46</v>
-      </c>
-      <c r="P14" s="6">
-        <v>25.25</v>
-      </c>
-      <c r="Q14">
+      <c r="O14" s="6">
+        <v>31.56</v>
+      </c>
+      <c r="P14">
         <f t="shared" si="0"/>
-        <v>75.25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+        <v>81.56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>186</v>
       </c>
@@ -6113,18 +6067,15 @@
       <c r="N15">
         <v>45</v>
       </c>
-      <c r="O15" t="s">
-        <v>46</v>
-      </c>
-      <c r="P15" s="6">
-        <v>30.89</v>
-      </c>
-      <c r="Q15">
+      <c r="O15" s="6">
+        <v>38.61</v>
+      </c>
+      <c r="P15">
         <f t="shared" si="0"/>
-        <v>75.89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+        <v>83.61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>199</v>
       </c>
@@ -6167,18 +6118,15 @@
       <c r="N16">
         <v>50</v>
       </c>
-      <c r="O16" t="s">
-        <v>46</v>
-      </c>
-      <c r="P16" s="6">
-        <v>32.659999999999997</v>
-      </c>
-      <c r="Q16">
+      <c r="O16" s="6">
+        <v>40.83</v>
+      </c>
+      <c r="P16">
         <f t="shared" si="0"/>
-        <v>82.66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+        <v>90.83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>212</v>
       </c>
@@ -6221,18 +6169,15 @@
       <c r="N17">
         <v>50</v>
       </c>
-      <c r="O17" t="s">
-        <v>46</v>
-      </c>
-      <c r="P17" s="6">
-        <v>37.72</v>
-      </c>
-      <c r="Q17">
+      <c r="O17" s="6">
+        <v>47.15</v>
+      </c>
+      <c r="P17">
         <f t="shared" si="0"/>
-        <v>87.72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+        <v>97.15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>224</v>
       </c>
@@ -6275,18 +6220,15 @@
       <c r="N18">
         <v>50</v>
       </c>
-      <c r="O18" t="s">
-        <v>46</v>
-      </c>
-      <c r="P18" s="6">
-        <v>20.25</v>
-      </c>
-      <c r="Q18">
+      <c r="O18" s="6">
+        <v>25.31</v>
+      </c>
+      <c r="P18">
         <f t="shared" si="0"/>
-        <v>70.25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+        <v>75.31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>236</v>
       </c>
@@ -6329,18 +6271,15 @@
       <c r="N19">
         <v>50</v>
       </c>
-      <c r="O19" t="s">
-        <v>46</v>
-      </c>
-      <c r="P19" s="6">
-        <v>36.46</v>
-      </c>
-      <c r="Q19">
+      <c r="O19" s="6">
+        <v>45.58</v>
+      </c>
+      <c r="P19">
         <f t="shared" si="0"/>
-        <v>86.460000000000008</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+        <v>95.58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>249</v>
       </c>
@@ -6383,18 +6322,15 @@
       <c r="N20">
         <v>50</v>
       </c>
-      <c r="O20" t="s">
-        <v>46</v>
-      </c>
-      <c r="P20" s="6">
-        <v>33.92</v>
-      </c>
-      <c r="Q20">
+      <c r="O20" s="6">
+        <v>42.4</v>
+      </c>
+      <c r="P20">
         <f t="shared" si="0"/>
-        <v>83.92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+        <v>92.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>262</v>
       </c>
@@ -6437,18 +6373,15 @@
       <c r="N21">
         <v>40</v>
       </c>
-      <c r="O21" t="s">
-        <v>46</v>
-      </c>
-      <c r="P21" s="6">
-        <v>31.14</v>
-      </c>
-      <c r="Q21">
+      <c r="O21" s="6">
+        <v>38.93</v>
+      </c>
+      <c r="P21">
         <f t="shared" si="0"/>
-        <v>71.14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+        <v>78.930000000000007</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>273</v>
       </c>
@@ -6491,18 +6424,15 @@
       <c r="N22">
         <v>50</v>
       </c>
-      <c r="O22" t="s">
-        <v>46</v>
-      </c>
-      <c r="P22" s="6">
-        <v>35</v>
-      </c>
-      <c r="Q22">
+      <c r="O22" s="6">
+        <v>43.75</v>
+      </c>
+      <c r="P22">
         <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>285</v>
       </c>
@@ -6545,18 +6475,15 @@
       <c r="N23">
         <v>50</v>
       </c>
-      <c r="O23" t="s">
-        <v>46</v>
-      </c>
-      <c r="P23" s="6">
-        <v>30</v>
-      </c>
-      <c r="Q23">
+      <c r="O23" s="6">
+        <v>37.5</v>
+      </c>
+      <c r="P23">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -6571,11 +6498,10 @@
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="4"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O24" s="8"/>
+      <c r="P24" s="4"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -6590,13 +6516,12 @@
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="4"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O25" s="8"/>
+      <c r="P25" s="4"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>298</v>
@@ -6605,29 +6530,29 @@
         <v>299</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="C27" t="s">
         <v>328</v>
       </c>
-      <c r="C27" t="s">
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+      <c r="B28" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="C28" t="s">
         <v>331</v>
       </c>
-      <c r="C28" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -6642,11 +6567,10 @@
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="4"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O29" s="8"/>
+      <c r="P29" s="4"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -6661,11 +6585,10 @@
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="4"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O30" s="8"/>
+      <c r="P30" s="4"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>306</v>
       </c>
@@ -6673,7 +6596,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="33" t="s">
         <v>308</v>
       </c>
@@ -6709,7 +6632,7 @@
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
@@ -8014,7 +7937,7 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>298</v>
@@ -8025,24 +7948,24 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="C27" t="s">
         <v>334</v>
-      </c>
-      <c r="C27" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="C28" t="s">
         <v>337</v>
-      </c>
-      <c r="C28" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8126,8 +8049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66CBED5A-119B-4DD0-A3C0-DD4B7D4EF36A}">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
@@ -8194,7 +8117,7 @@
         <v>13</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>16</v>
@@ -9360,7 +9283,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>298</v>
@@ -9371,24 +9294,24 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="C27" t="s">
         <v>341</v>
-      </c>
-      <c r="C27" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="C28" t="s">
         <v>344</v>
-      </c>
-      <c r="C28" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
@@ -9453,7 +9376,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -9541,16 +9464,16 @@
         <v>12</v>
       </c>
       <c r="N1" s="17" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="O1" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
@@ -9604,7 +9527,7 @@
         <v>1.08</v>
       </c>
       <c r="Q2" s="20" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
@@ -9658,7 +9581,7 @@
         <v>0.73</v>
       </c>
       <c r="Q3" s="20" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -9712,7 +9635,7 @@
         <v>0.27</v>
       </c>
       <c r="Q4" s="20" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -9766,7 +9689,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="Q5" s="21" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9974,7 +9897,7 @@
         <v>0.73</v>
       </c>
       <c r="Q9" s="20" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
@@ -10028,7 +9951,7 @@
         <v>0.81</v>
       </c>
       <c r="Q10" s="20" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -10186,7 +10109,7 @@
         <v>1.1800000000000002</v>
       </c>
       <c r="Q13" s="20" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
@@ -10240,7 +10163,7 @@
         <v>0.09</v>
       </c>
       <c r="Q14" s="20" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -10398,7 +10321,7 @@
         <v>0.54</v>
       </c>
       <c r="Q17" s="21" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
@@ -10452,7 +10375,7 @@
         <v>0.13500000000000001</v>
       </c>
       <c r="Q18" s="20" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
@@ -10506,7 +10429,7 @@
         <v>1.27</v>
       </c>
       <c r="Q19" s="20" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -10612,7 +10535,7 @@
         <v>2.7E-2</v>
       </c>
       <c r="Q21" s="20" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
@@ -10666,7 +10589,7 @@
         <v>0.89100000000000001</v>
       </c>
       <c r="Q22" s="20" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
@@ -10720,7 +10643,7 @@
         <v>0.82</v>
       </c>
       <c r="Q23" s="20" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -10767,7 +10690,7 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>298</v>
@@ -10779,26 +10702,26 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="C27" t="s">
         <v>363</v>
-      </c>
-      <c r="C27" t="s">
-        <v>364</v>
       </c>
       <c r="O27" s="19"/>
       <c r="P27"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="C28" t="s">
         <v>366</v>
-      </c>
-      <c r="C28" t="s">
-        <v>367</v>
       </c>
       <c r="O28" s="19"/>
       <c r="P28"/>
@@ -10887,7 +10810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18FFF526-E116-4DC6-8235-CFE7596CA50F}">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
     </sheetView>
@@ -10952,10 +10875,10 @@
         <v>12</v>
       </c>
       <c r="N1" s="17" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>16</v>
@@ -12119,7 +12042,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>298</v>
@@ -12134,24 +12057,24 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="C27" t="s">
         <v>370</v>
-      </c>
-      <c r="C27" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="C28" t="s">
         <v>373</v>
-      </c>
-      <c r="C28" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
@@ -12253,27 +12176,27 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="B1" t="s">
         <v>375</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>376</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>377</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>378</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>379</v>
-      </c>
-      <c r="F1" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B2">
         <v>68</v>
@@ -12285,7 +12208,7 @@
         <v>307</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F2" s="15">
         <v>1</v>
@@ -12293,7 +12216,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B3">
         <v>61.5</v>
@@ -12313,7 +12236,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B4">
         <v>69.600000000000009</v>
@@ -12325,7 +12248,7 @@
         <v>307</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F4" s="15">
         <v>1</v>
@@ -12333,7 +12256,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B5">
         <v>74</v>
@@ -12345,7 +12268,7 @@
         <v>307</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F5" s="15">
         <v>1</v>
@@ -12353,7 +12276,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B6">
         <v>69.899999999999991</v>
@@ -12365,7 +12288,7 @@
         <v>307</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F6" s="15">
         <v>1</v>
@@ -12373,7 +12296,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B7">
         <v>67.400000000000006</v>
@@ -12385,7 +12308,7 @@
         <v>307</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F7" s="15">
         <v>1</v>
@@ -12393,7 +12316,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B8">
         <v>62.9</v>
@@ -12405,7 +12328,7 @@
         <v>307</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F8" s="15">
         <v>1</v>
@@ -12413,7 +12336,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B9">
         <v>63.2</v>
@@ -12425,7 +12348,7 @@
         <v>307</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F9" s="15">
         <v>1</v>
@@ -12433,7 +12356,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B10">
         <v>63.8</v>
@@ -12445,7 +12368,7 @@
         <v>307</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F10" s="15">
         <v>1</v>
@@ -12453,7 +12376,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B11">
         <v>62.5</v>
@@ -12465,7 +12388,7 @@
         <v>307</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F11" s="15">
         <v>1</v>
@@ -12473,7 +12396,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B12">
         <v>67.599999999999994</v>
@@ -12485,7 +12408,7 @@
         <v>307</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F12" s="15">
         <v>1</v>
@@ -12493,7 +12416,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B13">
         <v>63.599999999999994</v>
@@ -12505,7 +12428,7 @@
         <v>307</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F13" s="15">
         <v>1</v>
@@ -12513,7 +12436,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B14">
         <v>77.099999999999994</v>
@@ -12525,7 +12448,7 @@
         <v>307</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F14" s="15">
         <v>1</v>
@@ -12545,7 +12468,7 @@
         <v>307</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F15" s="15">
         <v>1</v>
@@ -12553,7 +12476,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B16">
         <v>70.599999999999994</v>
@@ -12565,7 +12488,7 @@
         <v>307</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F16" s="15">
         <v>1</v>
@@ -12573,7 +12496,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B17">
         <v>56.8</v>
@@ -12585,7 +12508,7 @@
         <v>307</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F17" s="15">
         <v>1</v>
@@ -12593,7 +12516,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B18">
         <v>63.4</v>
@@ -12605,7 +12528,7 @@
         <v>307</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F18" s="15">
         <v>1</v>
@@ -12613,7 +12536,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B19">
         <v>65.2</v>
@@ -12625,7 +12548,7 @@
         <v>307</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F19" s="15">
         <v>1</v>
@@ -12633,7 +12556,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B20">
         <v>64</v>
@@ -12645,7 +12568,7 @@
         <v>307</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F20" s="15">
         <v>1</v>
@@ -12653,7 +12576,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B21">
         <v>50.1</v>
@@ -12665,7 +12588,7 @@
         <v>307</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F21" s="15">
         <v>1</v>
@@ -12673,7 +12596,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B22">
         <v>51.7</v>
@@ -12685,7 +12608,7 @@
         <v>307</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F22" s="15">
         <v>1</v>
@@ -12693,7 +12616,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B23" s="11">
         <v>42.9</v>
@@ -12705,7 +12628,7 @@
         <v>307</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F23" s="15">
         <v>1</v>
@@ -12961,15 +12884,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="5524ecfe-089c-425a-a4be-7743da73ddfc" xsi:nil="true"/>
@@ -12978,6 +12892,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13000,14 +12923,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A92F8EAB-94F8-4973-85AA-EF84B5AC7367}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3006C25A-5E3C-49E7-B071-5EAE6BA5B6FE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -13016,4 +12931,12 @@
     <ds:schemaRef ds:uri="7112d4b0-5493-499c-a8a1-c4cefa8f8360"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A92F8EAB-94F8-4973-85AA-EF84B5AC7367}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>